--- a/doc/planning/2022_06_species selection.xlsx
+++ b/doc/planning/2022_06_species selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kteixeira/Dropbox (Smithsonian)/GitHub/SCBI-ForestGEO/AutoDendrometers/doc/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4546FA7D-E961-764A-B850-413D96C42D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{443E681A-508D-4E45-93A9-A1777E5B52C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000"/>
+    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="2022_06_species selection" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +773,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1139,7 +1140,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,9 +2489,17 @@
         <f>C66/C$66</f>
         <v>1</v>
       </c>
+      <c r="I66">
+        <f t="shared" ref="I66:J66" si="0">SUM(I67:I129)</f>
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="K66">
         <f>SUM(K67:K129)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L66">
         <f>SUM(L67:L129)</f>
@@ -2498,94 +2507,94 @@
       </c>
       <c r="M66">
         <f>K66-L66</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="6">
         <v>0.99509161507006505</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="6">
         <v>2304</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="6">
         <v>0.99395007316574702</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="6">
         <v>2133</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" ref="G67:G129" si="0">C67/C$66</f>
+      <c r="G67" s="6">
+        <f t="shared" ref="G67:G129" si="1">C67/C$66</f>
         <v>0.45585878598070761</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="6">
         <f>G67</f>
         <v>0.45585878598070761</v>
       </c>
-      <c r="I67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="6">
         <v>2</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="6">
         <v>2</v>
       </c>
-      <c r="M67" s="2">
-        <f t="shared" ref="M67:M71" si="1">K67-L67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="M67" s="6">
+        <f t="shared" ref="M67:M71" si="2">K67-L67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="6">
         <v>0.255900217257853</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="6">
         <v>388</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="6">
         <v>0.254896508833862</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="6">
         <v>340</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="0"/>
+      <c r="G68" s="6">
+        <f t="shared" si="1"/>
         <v>0.11722977121372938</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="6">
         <f>G68+H67</f>
         <v>0.57308855719443696</v>
       </c>
-      <c r="I68" s="2">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
+      <c r="I68" s="6">
+        <v>1</v>
+      </c>
+      <c r="J68" s="6">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6">
         <v>2</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="6">
         <v>2</v>
       </c>
-      <c r="M68" s="2">
-        <f t="shared" si="1"/>
+      <c r="M68" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2609,11 +2618,11 @@
         <v>256</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.0436162078555418E-2</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" ref="H69:H129" si="2">G69+H68</f>
+        <f t="shared" ref="H69:H129" si="3">G69+H68</f>
         <v>0.65352471927299238</v>
       </c>
       <c r="I69" s="2">
@@ -2626,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2650,11 +2659,11 @@
         <v>369</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3235132768369987E-2</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7267598520413624</v>
       </c>
       <c r="I70" s="2">
@@ -2667,51 +2676,51 @@
         <v>2</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="71" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="6">
         <v>7.8938674049426893E-2</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="6">
         <v>1677</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="6">
         <v>7.3872519097258005E-2</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="6">
         <v>731</v>
       </c>
-      <c r="G71" s="2">
-        <f t="shared" si="0"/>
+      <c r="G71" s="6">
+        <f t="shared" si="1"/>
         <v>3.6162387034649884E-2</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="6">
+        <f t="shared" si="3"/>
+        <v>0.76292223907601231</v>
+      </c>
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6">
+        <v>1</v>
+      </c>
+      <c r="K71" s="6">
+        <v>2</v>
+      </c>
+      <c r="L71" s="6">
+        <v>2</v>
+      </c>
+      <c r="M71" s="6">
         <f t="shared" si="2"/>
-        <v>0.76292223907601231</v>
-      </c>
-      <c r="I71" s="2">
-        <v>1</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>2</v>
-      </c>
-      <c r="L71" s="2">
-        <v>2</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +2744,7 @@
         <v>314</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1999103629712436E-2</v>
       </c>
       <c r="I72" s="3">
@@ -2765,7 +2774,7 @@
         <v>201</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0349196617426417E-2</v>
       </c>
       <c r="H73" s="2">
@@ -2782,51 +2791,51 @@
         <v>2</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" ref="M73:M80" si="3">K73-L73</f>
+        <f t="shared" ref="M73:M80" si="4">K73-L73</f>
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2" t="s">
+    <row r="74" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="6">
         <v>5.5110943771690103E-2</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="6">
         <v>638</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="6">
         <v>5.0968083445541303E-2</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="6">
         <v>306</v>
       </c>
-      <c r="G74" s="2">
-        <f t="shared" si="0"/>
+      <c r="G74" s="6">
+        <f t="shared" si="1"/>
         <v>2.5246728584126171E-2</v>
       </c>
-      <c r="H74" s="2">
-        <f t="shared" si="2"/>
+      <c r="H74" s="6">
+        <f t="shared" si="3"/>
         <v>0.81851816427756485</v>
       </c>
-      <c r="I74" s="2">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
+      <c r="I74" s="6">
+        <v>1</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1</v>
+      </c>
+      <c r="K74" s="6">
         <v>2</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="6">
         <v>2</v>
       </c>
-      <c r="M74" s="2">
-        <f t="shared" si="3"/>
+      <c r="M74" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2850,11 +2859,11 @@
         <v>112</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4561177790432358E-2</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84307934206799717</v>
       </c>
       <c r="I75" s="2">
@@ -2867,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2891,11 +2900,11 @@
         <v>599</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2786471150594505E-2</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86586581321859168</v>
       </c>
       <c r="I76" s="2">
@@ -2908,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2932,11 +2941,11 @@
         <v>206</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.121679388191626E-2</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8870826071005079</v>
       </c>
       <c r="I77" s="2">
@@ -2949,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -2973,11 +2982,11 @@
         <v>298</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3081745490472857E-2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90016435259098071</v>
       </c>
       <c r="I78" s="2">
@@ -2990,46 +2999,39 @@
         <v>2</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B79" s="2" t="s">
+    <row r="79" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="4">
         <v>2.4077235967961599E-2</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="4">
         <v>309</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="4">
         <v>2.37021696102362E-2</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="4">
         <v>174</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="0"/>
+      <c r="G79" s="4">
+        <f t="shared" si="1"/>
         <v>1.1029958841883304E-2</v>
       </c>
-      <c r="H79" s="2">
-        <f t="shared" si="2"/>
+      <c r="H79" s="4">
+        <f t="shared" si="3"/>
         <v>0.911194311432864</v>
       </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
-        <v>2</v>
-      </c>
-      <c r="M79" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+      <c r="J79" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3052,11 +3054,11 @@
         <v>82</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3877648695164188E-3</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92058207630238043</v>
       </c>
       <c r="I80" s="2">
@@ -3069,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3093,11 +3095,11 @@
         <v>123</v>
       </c>
       <c r="G81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5670941332960729E-3</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.92914917043567646</v>
       </c>
       <c r="J81">
@@ -3124,22 +3126,19 @@
         <v>218</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0885412203613779E-3</v>
       </c>
       <c r="H82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.93623771165603786</v>
       </c>
       <c r="J82" s="4">
         <v>1</v>
-      </c>
-      <c r="K82" s="4">
-        <v>2</v>
       </c>
       <c r="M82" s="4">
         <f>K82-L82</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3162,11 +3161,11 @@
         <v>477</v>
       </c>
       <c r="G83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8795214399004984E-3</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94311723309593831</v>
       </c>
       <c r="J83">
@@ -3193,11 +3192,11 @@
         <v>26</v>
       </c>
       <c r="G84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7902033366823303E-3</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.94890743643262065</v>
       </c>
     </row>
@@ -3221,22 +3220,19 @@
         <v>93</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9552491715375993E-3</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95286268560415821</v>
       </c>
       <c r="J85" s="4">
         <v>1</v>
-      </c>
-      <c r="K85" s="4">
-        <v>2</v>
       </c>
       <c r="M85" s="4">
         <f>K85-L85</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3259,11 +3255,11 @@
         <v>45</v>
       </c>
       <c r="G86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1545002036920651E-3</v>
       </c>
       <c r="H86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95501718580785022</v>
       </c>
     </row>
@@ -3287,11 +3283,11 @@
         <v>82</v>
       </c>
       <c r="G87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1453053407683997E-3</v>
       </c>
       <c r="H87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95716249114861862</v>
       </c>
     </row>
@@ -3315,11 +3311,11 @@
         <v>33</v>
       </c>
       <c r="G88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4181651040370571E-3</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95858065625265565</v>
       </c>
     </row>
@@ -3343,11 +3339,11 @@
         <v>38</v>
       </c>
       <c r="G89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4075444620830799E-3</v>
       </c>
       <c r="H89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95998820071473878</v>
       </c>
     </row>
@@ -3371,11 +3367,11 @@
         <v>10</v>
       </c>
       <c r="G90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0574379035705973E-3</v>
       </c>
       <c r="H90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96104563861830938</v>
       </c>
     </row>
@@ -3399,11 +3395,11 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9574879847537309E-4</v>
       </c>
       <c r="H91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96194138741678481</v>
       </c>
     </row>
@@ -3427,11 +3423,11 @@
         <v>4</v>
       </c>
       <c r="G92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9786475341366595E-4</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96263925217019852</v>
       </c>
     </row>
@@ -3455,11 +3451,11 @@
         <v>18</v>
       </c>
       <c r="G93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3101950030057259E-4</v>
       </c>
       <c r="H93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96327027167049906</v>
       </c>
     </row>
@@ -3483,11 +3479,11 @@
         <v>11</v>
       </c>
       <c r="G94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0946766970893732E-4</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96387973934020799</v>
       </c>
     </row>
@@ -3511,11 +3507,11 @@
         <v>7</v>
       </c>
       <c r="G95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3029868839836014E-4</v>
       </c>
       <c r="H95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96441003802860636</v>
       </c>
     </row>
@@ -3539,15 +3535,15 @@
         <v>4</v>
       </c>
       <c r="G96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6230025513501594E-4</v>
       </c>
       <c r="H96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96487233828374142</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -3567,15 +3563,15 @@
         <v>10</v>
       </c>
       <c r="G97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2683534511360656E-4</v>
       </c>
       <c r="H97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96529917362885498</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -3595,15 +3591,15 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1794441737586446E-4</v>
       </c>
       <c r="H98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96571711804623084</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -3623,15 +3619,15 @@
         <v>2</v>
       </c>
       <c r="G99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4771293930802938E-4</v>
       </c>
       <c r="H99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96606483098553886</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>72</v>
       </c>
@@ -3651,15 +3647,15 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2224082094164469E-4</v>
       </c>
       <c r="H100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96638707180648054</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>72</v>
       </c>
@@ -3679,15 +3675,15 @@
         <v>6</v>
       </c>
       <c r="G101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5128753590435631E-4</v>
       </c>
       <c r="H101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96663835934238485</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>72</v>
       </c>
@@ -3707,18 +3703,18 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4106323008427744E-4</v>
       </c>
       <c r="H102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96687942257246917</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>72</v>
       </c>
@@ -3738,25 +3734,18 @@
         <v>15</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3393297348039781E-4</v>
       </c>
       <c r="H103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96711335554594957</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
       </c>
-      <c r="K103" s="4">
-        <v>2</v>
-      </c>
-      <c r="M103" s="4">
-        <f>K103-L103</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>72</v>
       </c>
@@ -3776,15 +3765,15 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3342264095408251E-4</v>
       </c>
       <c r="H104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96734677818690362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>72</v>
       </c>
@@ -3804,15 +3793,15 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9868516768389554E-4</v>
       </c>
       <c r="H105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96754546335458746</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>72</v>
       </c>
@@ -3832,15 +3821,15 @@
         <v>4</v>
       </c>
       <c r="G106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3785883822179117E-4</v>
       </c>
       <c r="H106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96768332219280928</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>72</v>
       </c>
@@ -3860,15 +3849,15 @@
         <v>7</v>
       </c>
       <c r="G107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3675772550815298E-4</v>
       </c>
       <c r="H107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96782007991831742</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>72</v>
       </c>
@@ -3888,15 +3877,15 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9907072162267539E-5</v>
       </c>
       <c r="H108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96791998699047965</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -3916,15 +3905,15 @@
         <v>2</v>
       </c>
       <c r="G109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.721144673738632E-5</v>
       </c>
       <c r="H109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96796719843721701</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -3944,15 +3933,15 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3481105915123833E-5</v>
       </c>
       <c r="H110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96800067954313218</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -3972,15 +3961,15 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6767966526815526E-5</v>
       </c>
       <c r="H111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4000,11 +3989,11 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4028,11 +4017,11 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4056,11 +4045,11 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4084,11 +4073,11 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4112,11 +4101,11 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4140,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4168,11 +4157,11 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4196,11 +4185,11 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4224,11 +4213,11 @@
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4252,11 +4241,11 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4280,11 +4269,11 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4308,11 +4297,11 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4336,11 +4325,11 @@
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4364,11 +4353,11 @@
         <v>0</v>
       </c>
       <c r="G125">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4392,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4420,11 +4409,11 @@
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4448,11 +4437,11 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96801744750965901</v>
       </c>
     </row>
@@ -4476,11 +4465,11 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6551139373451448E-5</v>
       </c>
       <c r="H129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.96800089637028552</v>
       </c>
     </row>
